--- a/res/balancing.xlsx
+++ b/res/balancing.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephanie\Desktop\Tom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Eigene Dokumente\GitHub\blackmarket-reloaded TOM\blackmarket-reloaded\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="2" r:id="rId1"/>
+    <sheet name="Achivements" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
   <si>
     <t>Actions</t>
   </si>
@@ -90,13 +91,43 @@
   </si>
   <si>
     <t>Ach + research mult.</t>
+  </si>
+  <si>
+    <t>Time Increase</t>
+  </si>
+  <si>
+    <t>Price Increase</t>
+  </si>
+  <si>
+    <t>Reward increase</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Owned Multi</t>
+  </si>
+  <si>
+    <t>Overall Achivements Time Multi</t>
+  </si>
+  <si>
+    <t>Time Achivements till Lvl 500</t>
+  </si>
+  <si>
+    <t>Money Achivements from Lvl 500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +138,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -133,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -144,9 +183,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,466 +478,2141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f>FIXED(4, 0)</f>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5">
+        <f>4</f>
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <f>FIXED(1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f>FIXED(1.5, 1)</f>
-        <v>1,5</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f>IF(I2&lt;25, D2, IF(I2&lt;50, D2/2, IF(I2&lt;100, D2/4, IF(I2&lt;200, D2/8, IF(I2&lt;300, D2/16, IF(I2&lt;400, D2/32, IF(I2&gt;= 400, D2/64)))))))</f>
-        <v>1,5</v>
-      </c>
-      <c r="F2" s="1">
-        <f>IF(I2&lt;500, 1, IF(I2&lt;600, 3, IF(I2&lt;700, 9, IF(I2&lt;800, 27, IF(I2&lt;900, 81, IF(I2&lt;1000, 243, IF(I2&lt;1100, 2430, 1)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>FIXED(F2*G2, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="str">
-        <f>FIXED((((C2*I2)*H2)*A13)*B13, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" t="str">
-        <f>FIXED(J2/E2, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="8">
+        <f>G2/VLOOKUP(A2,Achivements!A3:V11,22,FALSE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="1">
+        <f>VLOOKUP(A2,Achivements!A16:V24,22,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <f>I2*J2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <f>(((E2*L2)*K2)*$A$13)*$C$13</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <f>M2/H2</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <f>FIXED(4*12, 0)</f>
+      <c r="B3" s="4">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <f>C2*B3</f>
         <v>48</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <f>FIXED(C2*23, 0)</f>
+      <c r="D3" s="2">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f>FIXED(D2*2, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>IF(I3&lt;25, D3, IF(I3&lt;50, D3/2, IF(I3&lt;100, D3/4, IF(I3&lt;200, D3/8, IF(I3&lt;300, D3/16, IF(I3&lt;400, D3/32, IF(I3&gt;= 400, D3/64)))))))</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F10" si="0">IF(I3&lt;500, 1, IF(I3&lt;600, 3, IF(I3&lt;700, 9, IF(I3&lt;800, 27, IF(I3&lt;900, 81, IF(I3&lt;1000, 243, IF(I3&lt;1100, 2430, 1)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H10" si="1">FIXED(F3*G3, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" t="str">
-        <f>FIXED((((C3*I3)*H3)*A13)*B13, 0)</f>
+      <c r="E3" s="5">
+        <f>E2*D3</f>
         <v>23</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K10" si="2">FIXED(J3/E3, 0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <f>G2*F3</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
+        <f>G3/VLOOKUP(A3,Achivements!A4:V13,22,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <f>VLOOKUP(A3,Achivements!A17:V25,22,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <f>I3*J3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <f>(((E3*L3)*K3)*$A$13)*$C$13</f>
+        <v>23</v>
+      </c>
+      <c r="N3" s="6">
+        <f>M3/H3</f>
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f>FIXED(B3*23, 0)</f>
-        <v>1 104</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" ref="C4:C10" si="3">FIXED(C3*23, 0)</f>
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <f>C3*B4</f>
+        <v>576</v>
+      </c>
+      <c r="D4" s="2">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5">
+        <f>E3*D4</f>
         <v>529</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" ref="D4:D6" si="4">FIXED(D3*2, 0)</f>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <f>G3*F4</f>
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f>IF(I4&lt;25, D4, IF(I4&lt;50, D4/2, IF(I4&lt;100, D4/4, IF(I4&lt;200, D4/8, IF(I4&lt;300, D4/16, IF(I4&lt;400, D4/32, IF(I4&gt;= 400, D4/64)))))))</f>
+      <c r="H4" s="8">
+        <f>G4/VLOOKUP(A4,Achivements!A5:V15,22,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" t="str">
-        <f>FIXED((((C4*I4)*H4)*A13)*B13, 0)</f>
+      <c r="I4" s="1">
+        <f>VLOOKUP(A4,Achivements!A18:V26,22,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <f>(((E4*L4)*K4)*$A$13)*$C$13</f>
         <v>529</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" s="6">
+        <f>M4/H4</f>
+        <v>88.166666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B10" si="5">FIXED(B4*23, 0)</f>
-        <v>25 392</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>12 167</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="B5" s="4">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f>IF(I5&lt;25, D5, IF(I5&lt;50, D5/2, IF(I5&lt;100, D5/4, IF(I5&lt;200, D5/8, IF(I5&lt;300, D5/16, IF(I5&lt;400, D5/32, IF(I5&gt;= 400, D5/64)))))))</f>
+      <c r="C5" s="5">
+        <f>C4*B5</f>
+        <v>6912</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5">
+        <f>E4*D5</f>
+        <v>12167</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <f>G4*F5</f>
         <v>12</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" t="str">
-        <f>FIXED((((C5*I5)*H5)*A13)*B13, 0)</f>
-        <v>12 167</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>1 014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="8">
+        <f>G5/VLOOKUP(A5,Achivements!A6:V16,22,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="I5" s="1">
+        <f>VLOOKUP(A5,Achivements!A19:V27,22,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <f>(((E5*L5)*K5)*$A$13)*$C$13</f>
+        <v>12167</v>
+      </c>
+      <c r="N5" s="6">
+        <f>M5/H5</f>
+        <v>1013.9166666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>584 016</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>279 841</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <f>C5*B6</f>
+        <v>82944</v>
+      </c>
+      <c r="D6" s="2">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E5*D6</f>
+        <v>279841</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <f>G5*F6</f>
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="str">
-        <f>IF(I6&lt;25, D6, IF(I6&lt;50, D6/2, IF(I6&lt;100, D6/4, IF(I6&lt;200, D6/8, IF(I6&lt;300, D6/16, IF(I6&lt;400, D6/32, IF(I6&gt;= 400, D6/64)))))))</f>
+      <c r="H6" s="8">
+        <f>G6/VLOOKUP(A6,Achivements!A7:V17,22,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" t="str">
-        <f>FIXED((((C6*I6)*H6)*A13)*B13, 0)</f>
-        <v>279 841</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>11 660</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <f>VLOOKUP(A6,Achivements!A20:V28,22,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <f>(((E6*L6)*K6)*$A$13)*$C$13</f>
+        <v>279841</v>
+      </c>
+      <c r="N6" s="6">
+        <f>M6/H6</f>
+        <v>11660.041666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>13 432 368</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>6 436 343</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>FIXED(D6*4, 0)</f>
+      <c r="B7" s="4">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <f>C6*B7</f>
+        <v>995328</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <f>E6*D7</f>
+        <v>6436343</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <f>G6*F7</f>
         <v>96</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <f>IF(I7&lt;25, D7, IF(I7&lt;50, D7/2, IF(I7&lt;100, D7/4, IF(I7&lt;200, D7/8, IF(I7&lt;300, D7/16, IF(I7&lt;400, D7/32, IF(I7&gt;= 400, D7/64)))))))</f>
+      <c r="H7" s="8">
+        <f>G7/VLOOKUP(A7,Achivements!A8:V18,22,FALSE)</f>
         <v>96</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" t="str">
-        <f>FIXED((((C7*I7)*H7)*A13)*B13, 0)</f>
-        <v>6 436 343</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>67 045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <f>VLOOKUP(A7,Achivements!A21:V29,22,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <f>(((E7*L7)*K7)*$A$13)*$C$13</f>
+        <v>6436343</v>
+      </c>
+      <c r="N7" s="6">
+        <f>M7/H7</f>
+        <v>67045.239583333328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>308 944 464</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>148 035 889</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" ref="D8:D10" si="6">FIXED(D7*4, 0)</f>
+      <c r="B8" s="4">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C7*B8</f>
+        <v>11943936</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5">
+        <f>E7*D8</f>
+        <v>148035889</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <f>G7*F8</f>
         <v>384</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f>IF(I8&lt;25, D8, IF(I8&lt;50, D8/2, IF(I8&lt;100, D8/4, IF(I8&lt;200, D8/8, IF(I8&lt;300, D8/16, IF(I8&lt;400, D8/32, IF(I8&gt;= 400, D8/64)))))))</f>
+      <c r="H8" s="8">
+        <f>G8/VLOOKUP(A8,Achivements!A9:V19,22,FALSE)</f>
         <v>384</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" t="str">
-        <f>FIXED((((C8*I8)*H8)*A13)*B13, 0)</f>
-        <v>148 035 889</v>
-      </c>
-      <c r="K8" t="str">
-        <f>FIXED(J8/E8, 0)</f>
-        <v>385 510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <f>VLOOKUP(A8,Achivements!A22:V30,22,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <f>(((E8*L8)*K8)*$A$13)*$C$13</f>
+        <v>148035889</v>
+      </c>
+      <c r="N8" s="6">
+        <f>M8/H8</f>
+        <v>385510.12760416669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>7 105 722 672</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3 404 825 447</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>1 536</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>IF(I9&lt;25, D9, IF(I9&lt;50, D9/2, IF(I9&lt;100, D9/4, IF(I9&lt;200, D9/8, IF(I9&lt;300, D9/16, IF(I9&lt;400, D9/32, IF(I9&gt;= 400, D9/64)))))))</f>
-        <v>1 536</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" t="str">
-        <f>FIXED((((C9*I9)*H9)*A13)*B13, 0)</f>
-        <v>3 404 825 447</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v>2 216 683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <f>C8*B9</f>
+        <v>143327232</v>
+      </c>
+      <c r="D9" s="2">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5">
+        <f>E8*D9</f>
+        <v>3404825447</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <f>G8*F9</f>
+        <v>1536</v>
+      </c>
+      <c r="H9" s="8">
+        <f>G9/VLOOKUP(A9,Achivements!A10:V20,22,FALSE)</f>
+        <v>1536</v>
+      </c>
+      <c r="I9" s="1">
+        <f>VLOOKUP(A9,Achivements!A23:V31,22,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <f>(((E9*L9)*K9)*$A$13)*$C$13</f>
+        <v>3404825447</v>
+      </c>
+      <c r="N9" s="6">
+        <f>M9/H9</f>
+        <v>2216683.2337239585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>163 431 621 456</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>78 310 985 281</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>6 144</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f>IF(I10&lt;25, D10, IF(I10&lt;50, D10/2, IF(I10&lt;100, D10/4, IF(I10&lt;200, D10/8, IF(I10&lt;300, D10/16, IF(I10&lt;400, D10/32, IF(I10&gt;= 400, D10/64)))))))</f>
-        <v>6 144</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" t="str">
-        <f>FIXED((((C10*I10)*H10)*A13)*B13, 0)</f>
-        <v>78 310 985 281</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>12 745 929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <f>C9*B10</f>
+        <v>1719926784</v>
+      </c>
+      <c r="D10" s="2">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E9*D10</f>
+        <v>78310985281</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <f>G9*F10</f>
+        <v>6144</v>
+      </c>
+      <c r="H10" s="8">
+        <f>G10/VLOOKUP(A10,Achivements!A11:V21,22,FALSE)</f>
+        <v>6144</v>
+      </c>
+      <c r="I10" s="1">
+        <f>VLOOKUP(A10,Achivements!A24:V32,22,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <f>(((E10*L10)*K10)*$A$13)*$C$13</f>
+        <v>78310985281</v>
+      </c>
+      <c r="N10" s="6">
+        <f>M10/H10</f>
+        <v>12745928.59391276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>IF(VLOOKUP($A3,Actions!$A$2:$L$10,12,)&gt;=B3,C3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>IF(VLOOKUP($A3,Actions!$A$2:$L$10,12,)&gt;=E3,F3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>IF(VLOOKUP($A3,Actions!$A$2:$L$10,12,)&gt;=H3,I3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f>IF(VLOOKUP($A3,Actions!$A$2:$L$10,12,)&gt;=K3,L3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>300</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f>IF(VLOOKUP($A3,Actions!$A$2:$L$10,12,)&gt;=N3,O3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>400</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f>IF(VLOOKUP($A3,Actions!$A$2:$L$10,12,)&gt;=Q3,R3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>500</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f>IF((1*D3*G3*J3*M3*P3*S3)=0,1,(D3*G3*J3*M3*P3*S3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>IF(VLOOKUP($A4,Actions!$A$2:$L$10,12,)&gt;=B4,C4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>IF(VLOOKUP($A4,Actions!$A$2:$L$10,12,)&gt;=E4,F4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>IF(VLOOKUP($A4,Actions!$A$2:$L$10,12,)&gt;=H4,I4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f>IF(VLOOKUP($A4,Actions!$A$2:$L$10,12,)&gt;=K4,L4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>300</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f>IF(VLOOKUP($A4,Actions!$A$2:$L$10,12,)&gt;=N4,O4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>400</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f>IF(VLOOKUP($A4,Actions!$A$2:$L$10,12,)&gt;=Q4,R4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>500</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V11" si="0">IF((1*D4*G4*J4*M4*P4*S4)=0,1,(D4*G4*J4*M4*P4*S4))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>IF(VLOOKUP($A5,Actions!$A$2:$L$10,12,)&gt;=B5,C5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>IF(VLOOKUP($A5,Actions!$A$2:$L$10,12,)&gt;=E5,F5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>IF(VLOOKUP($A5,Actions!$A$2:$L$10,12,)&gt;=H5,I5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f>IF(VLOOKUP($A5,Actions!$A$2:$L$10,12,)&gt;=K5,L5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f>IF(VLOOKUP($A5,Actions!$A$2:$L$10,12,)&gt;=N5,O5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>400</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <f>IF(VLOOKUP($A5,Actions!$A$2:$L$10,12,)&gt;=Q5,R5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>500</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>IF(VLOOKUP($A6,Actions!$A$2:$L$10,12,)&gt;=B6,C6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>IF(VLOOKUP($A6,Actions!$A$2:$L$10,12,)&gt;=E6,F6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>IF(VLOOKUP($A6,Actions!$A$2:$L$10,12,)&gt;=H6,I6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>IF(VLOOKUP($A6,Actions!$A$2:$L$10,12,)&gt;=K6,L6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f>IF(VLOOKUP($A6,Actions!$A$2:$L$10,12,)&gt;=N6,O6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>400</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f>IF(VLOOKUP($A6,Actions!$A$2:$L$10,12,)&gt;=Q6,R6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>500</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>IF(VLOOKUP($A7,Actions!$A$2:$L$10,12,)&gt;=B7,C7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f>IF(VLOOKUP($A7,Actions!$A$2:$L$10,12,)&gt;=E7,F7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f>IF(VLOOKUP($A7,Actions!$A$2:$L$10,12,)&gt;=H7,I7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>IF(VLOOKUP($A7,Actions!$A$2:$L$10,12,)&gt;=K7,L7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f>IF(VLOOKUP($A7,Actions!$A$2:$L$10,12,)&gt;=N7,O7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>400</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f>IF(VLOOKUP($A7,Actions!$A$2:$L$10,12,)&gt;=Q7,R7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>500</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>IF(VLOOKUP($A8,Actions!$A$2:$L$10,12,)&gt;=B8,C8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f>IF(VLOOKUP($A8,Actions!$A$2:$L$10,12,)&gt;=E8,F8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>IF(VLOOKUP($A8,Actions!$A$2:$L$10,12,)&gt;=H8,I8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f>IF(VLOOKUP($A8,Actions!$A$2:$L$10,12,)&gt;=K8,L8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>300</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f>IF(VLOOKUP($A8,Actions!$A$2:$L$10,12,)&gt;=N8,O8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>400</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <f>IF(VLOOKUP($A8,Actions!$A$2:$L$10,12,)&gt;=Q8,R8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>500</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>IF(VLOOKUP($A9,Actions!$A$2:$L$10,12,)&gt;=B9,C9,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>IF(VLOOKUP($A9,Actions!$A$2:$L$10,12,)&gt;=E9,F9,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>IF(VLOOKUP($A9,Actions!$A$2:$L$10,12,)&gt;=H9,I9,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f>IF(VLOOKUP($A9,Actions!$A$2:$L$10,12,)&gt;=K9,L9,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>300</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <f>IF(VLOOKUP($A9,Actions!$A$2:$L$10,12,)&gt;=N9,O9,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>400</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f>IF(VLOOKUP($A9,Actions!$A$2:$L$10,12,)&gt;=Q9,R9,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>500</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>IF(VLOOKUP($A10,Actions!$A$2:$L$10,12,)&gt;=B10,C10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>IF(VLOOKUP($A10,Actions!$A$2:$L$10,12,)&gt;=E10,F10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>IF(VLOOKUP($A10,Actions!$A$2:$L$10,12,)&gt;=H10,I10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>IF(VLOOKUP($A10,Actions!$A$2:$L$10,12,)&gt;=K10,L10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>300</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f>IF(VLOOKUP($A10,Actions!$A$2:$L$10,12,)&gt;=N10,O10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>400</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <f>IF(VLOOKUP($A10,Actions!$A$2:$L$10,12,)&gt;=Q10,R10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>500</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f>IF(VLOOKUP($A11,Actions!$A$2:$L$10,12,)&gt;=B11,C11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>IF(VLOOKUP($A11,Actions!$A$2:$L$10,12,)&gt;=E11,F11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f>IF(VLOOKUP($A11,Actions!$A$2:$L$10,12,)&gt;=H11,I11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <f>IF(VLOOKUP($A11,Actions!$A$2:$L$10,12,)&gt;=K11,L11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>300</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <f>IF(VLOOKUP($A11,Actions!$A$2:$L$10,12,)&gt;=N11,O11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>400</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <f>IF(VLOOKUP($A11,Actions!$A$2:$L$10,12,)&gt;=Q11,R11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>500</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f>IF(VLOOKUP($A16,Actions!$A$2:$L$10,12,)&gt;=B16,C16,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>600</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f>IF(VLOOKUP($A16,Actions!$A$2:$L$10,12,)&gt;=E16,F16,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>700</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f>IF(VLOOKUP($A16,Actions!$A$2:$L$10,12,)&gt;=H16,I16,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>800</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f>IF(VLOOKUP($A16,Actions!$A$2:$L$10,12,)&gt;=K16,L16,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>900</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <f>IF(VLOOKUP($A16,Actions!$A$2:$L$10,12,)&gt;=N16,O16,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1000</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <f>IF(VLOOKUP($A16,Actions!$A$2:$L$10,12,)&gt;=Q16,R16,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1100</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <f>IF((1*D16*G16*J16*M16*P16*S16)=0,1,(D16*G16*J16*M16*P16*S16))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f>IF(VLOOKUP($A17,Actions!$A$2:$L$10,12,)&gt;=B17,C17,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f>IF(VLOOKUP($A17,Actions!$A$2:$L$10,12,)&gt;=E17,F17,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>700</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f>IF(VLOOKUP($A17,Actions!$A$2:$L$10,12,)&gt;=H17,I17,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>800</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f>IF(VLOOKUP($A17,Actions!$A$2:$L$10,12,)&gt;=K17,L17,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>900</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f>IF(VLOOKUP($A17,Actions!$A$2:$L$10,12,)&gt;=N17,O17,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1000</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <f>IF(VLOOKUP($A17,Actions!$A$2:$L$10,12,)&gt;=Q17,R17,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1100</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ref="V17:V24" si="1">IF((1*D17*G17*J17*M17*P17*S17)=0,1,(D17*G17*J17*M17*P17*S17))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f>IF(VLOOKUP($A18,Actions!$A$2:$L$10,12,)&gt;=B18,C18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>600</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <f>IF(VLOOKUP($A18,Actions!$A$2:$L$10,12,)&gt;=E18,F18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>700</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <f>IF(VLOOKUP($A18,Actions!$A$2:$L$10,12,)&gt;=H18,I18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>800</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f>IF(VLOOKUP($A18,Actions!$A$2:$L$10,12,)&gt;=K18,L18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>900</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f>IF(VLOOKUP($A18,Actions!$A$2:$L$10,12,)&gt;=N18,O18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1000</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <f>IF(VLOOKUP($A18,Actions!$A$2:$L$10,12,)&gt;=Q18,R18,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1100</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f>IF(VLOOKUP($A19,Actions!$A$2:$L$10,12,)&gt;=B19,C19,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>600</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <f>IF(VLOOKUP($A19,Actions!$A$2:$L$10,12,)&gt;=E19,F19,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>700</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f>IF(VLOOKUP($A19,Actions!$A$2:$L$10,12,)&gt;=H19,I19,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>800</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f>IF(VLOOKUP($A19,Actions!$A$2:$L$10,12,)&gt;=K19,L19,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>900</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <f>IF(VLOOKUP($A19,Actions!$A$2:$L$10,12,)&gt;=N19,O19,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1000</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <f>IF(VLOOKUP($A19,Actions!$A$2:$L$10,12,)&gt;=Q19,R19,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1100</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>500</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f>IF(VLOOKUP($A20,Actions!$A$2:$L$10,12,)&gt;=B20,C20,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>600</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>IF(VLOOKUP($A20,Actions!$A$2:$L$10,12,)&gt;=E20,F20,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>700</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f>IF(VLOOKUP($A20,Actions!$A$2:$L$10,12,)&gt;=H20,I20,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>800</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <f>IF(VLOOKUP($A20,Actions!$A$2:$L$10,12,)&gt;=K20,L20,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>900</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <f>IF(VLOOKUP($A20,Actions!$A$2:$L$10,12,)&gt;=N20,O20,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1000</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <f>IF(VLOOKUP($A20,Actions!$A$2:$L$10,12,)&gt;=Q20,R20,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1100</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f>IF(VLOOKUP($A21,Actions!$A$2:$L$10,12,)&gt;=B21,C21,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f>IF(VLOOKUP($A21,Actions!$A$2:$L$10,12,)&gt;=E21,F21,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>700</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <f>IF(VLOOKUP($A21,Actions!$A$2:$L$10,12,)&gt;=H21,I21,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>800</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <f>IF(VLOOKUP($A21,Actions!$A$2:$L$10,12,)&gt;=K21,L21,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>900</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <f>IF(VLOOKUP($A21,Actions!$A$2:$L$10,12,)&gt;=N21,O21,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1000</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <f>IF(VLOOKUP($A21,Actions!$A$2:$L$10,12,)&gt;=Q21,R21,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1100</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f>IF(VLOOKUP($A22,Actions!$A$2:$L$10,12,)&gt;=B22,C22,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>600</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f>IF(VLOOKUP($A22,Actions!$A$2:$L$10,12,)&gt;=E22,F22,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>700</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <f>IF(VLOOKUP($A22,Actions!$A$2:$L$10,12,)&gt;=H22,I22,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>800</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <f>IF(VLOOKUP($A22,Actions!$A$2:$L$10,12,)&gt;=K22,L22,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>900</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <f>IF(VLOOKUP($A22,Actions!$A$2:$L$10,12,)&gt;=N22,O22,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1000</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <f>IF(VLOOKUP($A22,Actions!$A$2:$L$10,12,)&gt;=Q22,R22,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1100</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f>IF(VLOOKUP($A23,Actions!$A$2:$L$10,12,)&gt;=B23,C23,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>600</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <f>IF(VLOOKUP($A23,Actions!$A$2:$L$10,12,)&gt;=E23,F23,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>700</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <f>IF(VLOOKUP($A23,Actions!$A$2:$L$10,12,)&gt;=H23,I23,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>800</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <f>IF(VLOOKUP($A23,Actions!$A$2:$L$10,12,)&gt;=K23,L23,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>900</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f>IF(VLOOKUP($A23,Actions!$A$2:$L$10,12,)&gt;=N23,O23,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1000</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <f>IF(VLOOKUP($A23,Actions!$A$2:$L$10,12,)&gt;=Q23,R23,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1100</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>500</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <f>IF(VLOOKUP($A24,Actions!$A$2:$L$10,12,)&gt;=B24,C24,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>600</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <f>IF(VLOOKUP($A24,Actions!$A$2:$L$10,12,)&gt;=E24,F24,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>700</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <f>IF(VLOOKUP($A24,Actions!$A$2:$L$10,12,)&gt;=H24,I24,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>800</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <f>IF(VLOOKUP($A24,Actions!$A$2:$L$10,12,)&gt;=K24,L24,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>900</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f>IF(VLOOKUP($A24,Actions!$A$2:$L$10,12,)&gt;=N24,O24,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1000</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <f>IF(VLOOKUP($A24,Actions!$A$2:$L$10,12,)&gt;=Q24,R24,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1100</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A14:V14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/res/balancing.xlsx
+++ b/res/balancing.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Eigene Dokumente\GitHub\blackmarket-reloaded TOM\blackmarket-reloaded\res\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="4380"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="2" r:id="rId1"/>
     <sheet name="Achivements" sheetId="3" r:id="rId2"/>
+    <sheet name="Research" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,7 +123,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,16 +152,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,38 +213,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -257,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -292,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -469,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,548 +607,548 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5">
+      <c r="F2" s="9"/>
+      <c r="G2" s="11">
         <f>1.5</f>
         <v>1.5</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="11">
         <f>G2/VLOOKUP(A2,Achivements!A3:V11,22,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="14">
         <f>VLOOKUP(A2,Achivements!A16:V24,22,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <f>I2*J2</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <f>(((E2*L2)*K2)*$A$13)*$C$13</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <f>M2/H2</f>
+      <c r="J2" s="14">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
+        <f t="shared" ref="K2:K10" si="0">I2*J2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <f t="shared" ref="M2:M10" si="1">(((E2*L2)*K2)*$A$13)*$C$13</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="13">
+        <f t="shared" ref="N2:N10" si="2">M2/H2</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
-        <f>C2*B3</f>
+      <c r="C3" s="10">
+        <f t="shared" ref="C3:C10" si="3">C2*B3</f>
         <v>48</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9">
         <v>23</v>
       </c>
-      <c r="E3" s="5">
-        <f>E2*D3</f>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E10" si="4">E2*D3</f>
         <v>23</v>
       </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <f>G2*F3</f>
-        <v>3</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G10" si="5">G2*F3</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="11">
         <f>G3/VLOOKUP(A3,Achivements!A4:V13,22,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="14">
         <f>VLOOKUP(A3,Achivements!A17:V25,22,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <f>I3*J3</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
-        <f>(((E3*L3)*K3)*$A$13)*$C$13</f>
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="N3" s="6">
-        <f>M3/H3</f>
+      <c r="N3" s="13">
+        <f t="shared" si="2"/>
         <v>7.666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
-        <f>C3*B4</f>
+      <c r="C4" s="10">
+        <f t="shared" si="3"/>
         <v>576</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <v>23</v>
       </c>
-      <c r="E4" s="5">
-        <f>E3*D4</f>
+      <c r="E4" s="10">
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <f>G3*F4</f>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="11">
         <f>G4/VLOOKUP(A4,Achivements!A5:V15,22,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="14">
         <f>VLOOKUP(A4,Achivements!A18:V26,22,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
-        <f>(((E4*L4)*K4)*$A$13)*$C$13</f>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" si="1"/>
         <v>529</v>
       </c>
-      <c r="N4" s="6">
-        <f>M4/H4</f>
+      <c r="N4" s="13">
+        <f t="shared" si="2"/>
         <v>88.166666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
-        <f>C4*B5</f>
+      <c r="C5" s="10">
+        <f t="shared" si="3"/>
         <v>6912</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>23</v>
       </c>
-      <c r="E5" s="5">
-        <f>E4*D5</f>
+      <c r="E5" s="10">
+        <f t="shared" si="4"/>
         <v>12167</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <f>G4*F5</f>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="11">
         <f>G5/VLOOKUP(A5,Achivements!A6:V16,22,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="14">
         <f>VLOOKUP(A5,Achivements!A19:V27,22,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <f>(((E5*L5)*K5)*$A$13)*$C$13</f>
+      <c r="J5" s="14">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="1"/>
         <v>12167</v>
       </c>
-      <c r="N5" s="6">
-        <f>M5/H5</f>
+      <c r="N5" s="13">
+        <f t="shared" si="2"/>
         <v>1013.9166666666666</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
-        <f>C5*B6</f>
+      <c r="C6" s="10">
+        <f t="shared" si="3"/>
         <v>82944</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>23</v>
       </c>
-      <c r="E6" s="5">
-        <f>E5*D6</f>
+      <c r="E6" s="10">
+        <f t="shared" si="4"/>
         <v>279841</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <f>G5*F6</f>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="11">
         <f>G6/VLOOKUP(A6,Achivements!A7:V17,22,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="14">
         <f>VLOOKUP(A6,Achivements!A20:V28,22,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <f>(((E6*L6)*K6)*$A$13)*$C$13</f>
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="1"/>
         <v>279841</v>
       </c>
-      <c r="N6" s="6">
-        <f>M6/H6</f>
+      <c r="N6" s="13">
+        <f t="shared" si="2"/>
         <v>11660.041666666666</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
-        <f>C6*B7</f>
+      <c r="C7" s="10">
+        <f t="shared" si="3"/>
         <v>995328</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>23</v>
       </c>
-      <c r="E7" s="5">
-        <f>E6*D7</f>
+      <c r="E7" s="10">
+        <f t="shared" si="4"/>
         <v>6436343</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="9">
         <v>4</v>
       </c>
-      <c r="G7" s="5">
-        <f>G6*F7</f>
+      <c r="G7" s="11">
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="11">
         <f>G7/VLOOKUP(A7,Achivements!A8:V18,22,FALSE)</f>
         <v>96</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="14">
         <f>VLOOKUP(A7,Achivements!A21:V29,22,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <f>(((E7*L7)*K7)*$A$13)*$C$13</f>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="1"/>
         <v>6436343</v>
       </c>
-      <c r="N7" s="6">
-        <f>M7/H7</f>
+      <c r="N7" s="13">
+        <f t="shared" si="2"/>
         <v>67045.239583333328</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
-        <f>C7*B8</f>
+      <c r="C8" s="10">
+        <f t="shared" si="3"/>
         <v>11943936</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>23</v>
       </c>
-      <c r="E8" s="5">
-        <f>E7*D8</f>
+      <c r="E8" s="10">
+        <f t="shared" si="4"/>
         <v>148035889</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="9">
         <v>4</v>
       </c>
-      <c r="G8" s="5">
-        <f>G7*F8</f>
+      <c r="G8" s="11">
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="11">
         <f>G8/VLOOKUP(A8,Achivements!A9:V19,22,FALSE)</f>
         <v>384</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="14">
         <f>VLOOKUP(A8,Achivements!A22:V30,22,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <f>(((E8*L8)*K8)*$A$13)*$C$13</f>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="1"/>
         <v>148035889</v>
       </c>
-      <c r="N8" s="6">
-        <f>M8/H8</f>
+      <c r="N8" s="13">
+        <f t="shared" si="2"/>
         <v>385510.12760416669</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>12</v>
       </c>
-      <c r="C9" s="5">
-        <f>C8*B9</f>
+      <c r="C9" s="10">
+        <f t="shared" si="3"/>
         <v>143327232</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <v>23</v>
       </c>
-      <c r="E9" s="5">
-        <f>E8*D9</f>
+      <c r="E9" s="10">
+        <f t="shared" si="4"/>
         <v>3404825447</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="9">
         <v>4</v>
       </c>
-      <c r="G9" s="5">
-        <f>G8*F9</f>
+      <c r="G9" s="11">
+        <f t="shared" si="5"/>
         <v>1536</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="11">
         <f>G9/VLOOKUP(A9,Achivements!A10:V20,22,FALSE)</f>
         <v>1536</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="14">
         <f>VLOOKUP(A9,Achivements!A23:V31,22,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <f>(((E9*L9)*K9)*$A$13)*$C$13</f>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="1"/>
         <v>3404825447</v>
       </c>
-      <c r="N9" s="6">
-        <f>M9/H9</f>
+      <c r="N9" s="13">
+        <f t="shared" si="2"/>
         <v>2216683.2337239585</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
-        <f>C9*B10</f>
+      <c r="C10" s="10">
+        <f t="shared" si="3"/>
         <v>1719926784</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>23</v>
       </c>
-      <c r="E10" s="5">
-        <f>E9*D10</f>
+      <c r="E10" s="10">
+        <f t="shared" si="4"/>
         <v>78310985281</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="5">
-        <f>G9*F10</f>
+      <c r="G10" s="11">
+        <f t="shared" si="5"/>
         <v>6144</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="11">
         <f>G10/VLOOKUP(A10,Achivements!A11:V21,22,FALSE)</f>
         <v>6144</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="14">
         <f>VLOOKUP(A10,Achivements!A24:V32,22,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <f>(((E10*L10)*K10)*$A$13)*$C$13</f>
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="1"/>
         <v>78310985281</v>
       </c>
-      <c r="N10" s="6">
-        <f>M10/H10</f>
+      <c r="N10" s="13">
+        <f t="shared" si="2"/>
         <v>12745928.59391276</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>1</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="1"/>
@@ -1041,7 +1167,7 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -1068,101 +1194,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1237,7 +1363,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1312,7 +1438,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1387,7 +1513,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -1462,7 +1588,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -1537,7 +1663,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -1612,7 +1738,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -1687,7 +1813,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -1762,7 +1888,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1837,104 +1963,104 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="V15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B16">
@@ -2009,7 +2135,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17">
@@ -2084,7 +2210,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B18">
@@ -2159,7 +2285,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19">
@@ -2234,7 +2360,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B20">
@@ -2309,7 +2435,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B21">
@@ -2384,7 +2510,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B22">
@@ -2459,7 +2585,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B23">
@@ -2534,7 +2660,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B24">
@@ -2615,4 +2741,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>